--- a/manuscript/supplementary-material/Supplementary Table 2.xlsx
+++ b/manuscript/supplementary-material/Supplementary Table 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="Top50 Transcripts of AREBA Spec" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,127 +13,127 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>CP000816</t>
-  </si>
-  <si>
-    <t>CP000678</t>
-  </si>
-  <si>
-    <t>AE017199</t>
-  </si>
-  <si>
-    <t>AE009950</t>
-  </si>
-  <si>
-    <t>AE006641</t>
-  </si>
-  <si>
-    <t>AE017225</t>
-  </si>
-  <si>
-    <t>AE017194</t>
-  </si>
-  <si>
-    <t>AE016877</t>
-  </si>
-  <si>
-    <t>merged</t>
-  </si>
-  <si>
-    <t>AE001363</t>
-  </si>
-  <si>
-    <t>FN543502</t>
-  </si>
-  <si>
-    <t>CP000721</t>
-  </si>
-  <si>
-    <t>AM180355</t>
-  </si>
-  <si>
-    <t>CP000800</t>
-  </si>
-  <si>
-    <t>U00096</t>
-  </si>
-  <si>
-    <t>CP000249</t>
-  </si>
-  <si>
-    <t>AE000511</t>
-  </si>
-  <si>
-    <t>CP000947</t>
-  </si>
-  <si>
-    <t>CP003200</t>
-  </si>
-  <si>
-    <t>AE017354</t>
-  </si>
-  <si>
-    <t>CP002002</t>
-  </si>
-  <si>
-    <t>CP002382</t>
-  </si>
-  <si>
-    <t>AL123456</t>
-  </si>
-  <si>
-    <t>U00089</t>
-  </si>
-  <si>
-    <t>AE004969</t>
-  </si>
-  <si>
-    <t>AP009380</t>
-  </si>
-  <si>
-    <t>AE015924</t>
-  </si>
-  <si>
-    <t>BX548174</t>
-  </si>
-  <si>
-    <t>AM942759</t>
-  </si>
-  <si>
-    <t>CP000438</t>
-  </si>
-  <si>
-    <t>AE004091</t>
-  </si>
-  <si>
-    <t>AE015451</t>
-  </si>
-  <si>
-    <t>merged</t>
-  </si>
-  <si>
-    <t>AE014613</t>
-  </si>
-  <si>
-    <t>CP000253</t>
-  </si>
-  <si>
-    <t>AM743169</t>
-  </si>
-  <si>
-    <t>CP000951</t>
-  </si>
-  <si>
-    <t>CP000100</t>
-  </si>
-  <si>
-    <t>merged</t>
-  </si>
-  <si>
-    <t>merged</t>
-  </si>
-  <si>
-    <t>AE008923</t>
+    <t>Ignicoccus_hospitalis</t>
+  </si>
+  <si>
+    <t>Methanobrevibacter_smithii_ATCC_35061</t>
+  </si>
+  <si>
+    <t>Nanoarchaeum_equitans_Ignicoccus_hospitalis</t>
+  </si>
+  <si>
+    <t>Pyrococcus_furiosus</t>
+  </si>
+  <si>
+    <t>Sulfolobus_solfataricus_P2</t>
+  </si>
+  <si>
+    <t>Bacillus_anthracis_Sterne</t>
+  </si>
+  <si>
+    <t>Bacillus_cereus_ATCC_10987</t>
+  </si>
+  <si>
+    <t>Bacillus_cereus_ATCC_14579</t>
+  </si>
+  <si>
+    <t>Burkholderia_glumae_BGR1</t>
+  </si>
+  <si>
+    <t>Chlamydophila_pneumoniae_CWL029</t>
+  </si>
+  <si>
+    <t>Citrobacter_rodentium</t>
+  </si>
+  <si>
+    <t>Clostridium_beijerinckii_NCIMB_8052</t>
+  </si>
+  <si>
+    <t>Clostridium_difficile_630</t>
+  </si>
+  <si>
+    <t>Escherichia_coli_ETEC_E24377A</t>
+  </si>
+  <si>
+    <t>Escherichia_coli_K-12_MG1665</t>
+  </si>
+  <si>
+    <t>Frankia_sp._CcI3</t>
+  </si>
+  <si>
+    <t>Helicobacter_pylori</t>
+  </si>
+  <si>
+    <t>Histophilus_somnus_2336</t>
+  </si>
+  <si>
+    <t>Klebsiella_pneumoniae_cifa_HP1</t>
+  </si>
+  <si>
+    <t>Legionella_pneumophila</t>
+  </si>
+  <si>
+    <t>Listeria_monocytogenes</t>
+  </si>
+  <si>
+    <t>Micavibrio_aeruginosavorus_ARL-13</t>
+  </si>
+  <si>
+    <t>Mycobacterium_tuberculosis_H37Rv</t>
+  </si>
+  <si>
+    <t>Mycoplasma_pneumoniae_M129</t>
+  </si>
+  <si>
+    <t>Neisseria_gonorrhoeae_FA_1090</t>
+  </si>
+  <si>
+    <t>Porphyromonas_gingivalis_ATCC_33277</t>
+  </si>
+  <si>
+    <t>Porphyromonas_gingivalis_W83</t>
+  </si>
+  <si>
+    <t>Prochlorococcus_marinus_MED4_CCMP1986</t>
+  </si>
+  <si>
+    <t>Proteus_mirabilis</t>
+  </si>
+  <si>
+    <t>Pseudomonas_aeruginosa_PA14</t>
+  </si>
+  <si>
+    <t>Pseudomonas_aeruginosa_PAO1</t>
+  </si>
+  <si>
+    <t>Pseudomonas_putida_KT2440</t>
+  </si>
+  <si>
+    <t>Rhodobacter_sphaeroides</t>
+  </si>
+  <si>
+    <t>Salmonella_enterica_Typhi_Ty2</t>
+  </si>
+  <si>
+    <t>Staphylococcus_aureus_NCTC_8325</t>
+  </si>
+  <si>
+    <t>Stenotrophomonas_maltophilia</t>
+  </si>
+  <si>
+    <t>Synechococcus_elongatus_PCC_7002</t>
+  </si>
+  <si>
+    <t>Synechococcus_elongatus_PCC_7942</t>
+  </si>
+  <si>
+    <t>Vibrio_cholerae_O1_biovar_El_Tor_N16961</t>
+  </si>
+  <si>
+    <t>Vibrio_splendidus_LGP32</t>
+  </si>
+  <si>
+    <t>Xanthomonas_citri_subsp._citri_306</t>
   </si>
   <si>
     <t>RF01959:SSU_rRNA_archaea:4953</t>
@@ -6356,6 +6356,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="30.43"/>
+    <col min="2" customWidth="1" max="2" width="37.57"/>
+    <col min="3" customWidth="1" max="3" width="43.29"/>
+    <col min="4" customWidth="1" max="4" width="30.43"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">

--- a/manuscript/supplementary-material/Supplementary Table 2.xlsx
+++ b/manuscript/supplementary-material/Supplementary Table 2.xlsx
@@ -12,6 +12,129 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>CP000816</t>
+  </si>
+  <si>
+    <t>CP000678</t>
+  </si>
+  <si>
+    <t>AE017199</t>
+  </si>
+  <si>
+    <t>AE009950</t>
+  </si>
+  <si>
+    <t>AE006641</t>
+  </si>
+  <si>
+    <t>AE017225</t>
+  </si>
+  <si>
+    <t>AE017194</t>
+  </si>
+  <si>
+    <t>AE016877</t>
+  </si>
+  <si>
+    <t>CP001503:CP001504</t>
+  </si>
+  <si>
+    <t>AE001363</t>
+  </si>
+  <si>
+    <t>FN543502</t>
+  </si>
+  <si>
+    <t>CP000721</t>
+  </si>
+  <si>
+    <t>AM180355</t>
+  </si>
+  <si>
+    <t>CP000800</t>
+  </si>
+  <si>
+    <t>U00096</t>
+  </si>
+  <si>
+    <t>CP000249</t>
+  </si>
+  <si>
+    <t>AE000511</t>
+  </si>
+  <si>
+    <t>CP000947</t>
+  </si>
+  <si>
+    <t>CP003200</t>
+  </si>
+  <si>
+    <t>AE017354</t>
+  </si>
+  <si>
+    <t>CP002002</t>
+  </si>
+  <si>
+    <t>CP002382</t>
+  </si>
+  <si>
+    <t>AL123456</t>
+  </si>
+  <si>
+    <t>U00089</t>
+  </si>
+  <si>
+    <t>AE004969</t>
+  </si>
+  <si>
+    <t>AP009380</t>
+  </si>
+  <si>
+    <t>AE015924</t>
+  </si>
+  <si>
+    <t>BX548174</t>
+  </si>
+  <si>
+    <t>AM942759</t>
+  </si>
+  <si>
+    <t>CP000438</t>
+  </si>
+  <si>
+    <t>AE004091</t>
+  </si>
+  <si>
+    <t>AE015451</t>
+  </si>
+  <si>
+    <t>CP000143:CP000144</t>
+  </si>
+  <si>
+    <t>AE014613</t>
+  </si>
+  <si>
+    <t>CP000253</t>
+  </si>
+  <si>
+    <t>AM743169</t>
+  </si>
+  <si>
+    <t>CP000951</t>
+  </si>
+  <si>
+    <t>CP000100</t>
+  </si>
+  <si>
+    <t>AE003852:AE003853</t>
+  </si>
+  <si>
+    <t>FM954972:FM954973</t>
+  </si>
+  <si>
+    <t>AE008923</t>
+  </si>
   <si>
     <t>Ignicoccus_hospitalis</t>
   </si>
@@ -6353,15 +6476,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane topLeftCell="A3" ySplit="2.0" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="B4" activeCell="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="30.43"/>
-    <col min="2" customWidth="1" max="2" width="37.57"/>
-    <col min="3" customWidth="1" max="3" width="43.29"/>
-    <col min="4" customWidth="1" max="4" width="30.43"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
@@ -6489,127 +6609,127 @@
       </c>
     </row>
     <row r="2">
-      <c t="s" s="2" r="A2">
+      <c t="s" s="1" r="A2">
         <v>41</v>
       </c>
-      <c t="s" s="2" r="B2">
+      <c t="s" s="1" r="B2">
         <v>42</v>
       </c>
-      <c t="s" s="2" r="C2">
+      <c t="s" s="1" r="C2">
         <v>43</v>
       </c>
-      <c t="s" s="2" r="D2">
+      <c t="s" s="1" r="D2">
         <v>44</v>
       </c>
-      <c t="s" s="2" r="E2">
+      <c t="s" s="1" r="E2">
         <v>45</v>
       </c>
-      <c t="s" s="2" r="F2">
+      <c t="s" s="1" r="F2">
         <v>46</v>
       </c>
-      <c t="s" s="2" r="G2">
+      <c t="s" s="1" r="G2">
         <v>47</v>
       </c>
-      <c t="s" s="2" r="H2">
+      <c t="s" s="1" r="H2">
         <v>48</v>
       </c>
-      <c t="s" s="2" r="I2">
+      <c t="s" s="1" r="I2">
         <v>49</v>
       </c>
-      <c t="s" s="2" r="J2">
+      <c t="s" s="1" r="J2">
         <v>50</v>
       </c>
-      <c t="s" s="2" r="K2">
+      <c t="s" s="1" r="K2">
         <v>51</v>
       </c>
-      <c t="s" s="2" r="L2">
+      <c t="s" s="1" r="L2">
         <v>52</v>
       </c>
-      <c t="s" s="2" r="M2">
+      <c t="s" s="1" r="M2">
         <v>53</v>
       </c>
-      <c t="s" s="2" r="N2">
+      <c t="s" s="1" r="N2">
         <v>54</v>
       </c>
-      <c t="s" s="2" r="O2">
+      <c t="s" s="1" r="O2">
         <v>55</v>
       </c>
-      <c t="s" s="2" r="P2">
+      <c t="s" s="1" r="P2">
         <v>56</v>
       </c>
-      <c t="s" s="2" r="Q2">
+      <c t="s" s="1" r="Q2">
         <v>57</v>
       </c>
-      <c t="s" s="2" r="R2">
+      <c t="s" s="1" r="R2">
         <v>58</v>
       </c>
-      <c t="s" s="2" r="S2">
+      <c t="s" s="1" r="S2">
         <v>59</v>
       </c>
-      <c t="s" s="2" r="T2">
+      <c t="s" s="1" r="T2">
         <v>60</v>
       </c>
-      <c t="s" s="2" r="U2">
+      <c t="s" s="1" r="U2">
         <v>61</v>
       </c>
-      <c t="s" s="2" r="V2">
+      <c t="s" s="1" r="V2">
         <v>62</v>
       </c>
-      <c t="s" s="2" r="W2">
+      <c t="s" s="1" r="W2">
         <v>63</v>
       </c>
-      <c t="s" s="2" r="X2">
+      <c t="s" s="1" r="X2">
         <v>64</v>
       </c>
-      <c t="s" s="2" r="Y2">
+      <c t="s" s="1" r="Y2">
         <v>65</v>
       </c>
-      <c t="s" s="2" r="Z2">
+      <c t="s" s="1" r="Z2">
         <v>66</v>
       </c>
-      <c t="s" s="2" r="AA2">
+      <c t="s" s="1" r="AA2">
         <v>67</v>
       </c>
-      <c t="s" s="2" r="AB2">
+      <c t="s" s="1" r="AB2">
         <v>68</v>
       </c>
-      <c t="s" s="2" r="AC2">
+      <c t="s" s="1" r="AC2">
         <v>69</v>
       </c>
-      <c t="s" s="2" r="AD2">
+      <c t="s" s="1" r="AD2">
         <v>70</v>
       </c>
-      <c t="s" s="2" r="AE2">
+      <c t="s" s="1" r="AE2">
         <v>71</v>
       </c>
-      <c t="s" s="2" r="AF2">
+      <c t="s" s="1" r="AF2">
         <v>72</v>
       </c>
-      <c t="s" s="2" r="AG2">
+      <c t="s" s="1" r="AG2">
         <v>73</v>
       </c>
-      <c t="s" s="2" r="AH2">
+      <c t="s" s="1" r="AH2">
         <v>74</v>
       </c>
-      <c t="s" s="2" r="AI2">
+      <c t="s" s="1" r="AI2">
         <v>75</v>
       </c>
-      <c t="s" s="2" r="AJ2">
+      <c t="s" s="1" r="AJ2">
         <v>76</v>
       </c>
-      <c t="s" s="2" r="AK2">
+      <c t="s" s="1" r="AK2">
         <v>77</v>
       </c>
-      <c t="s" s="2" r="AL2">
+      <c t="s" s="1" r="AL2">
         <v>78</v>
       </c>
-      <c t="s" s="2" r="AM2">
+      <c t="s" s="1" r="AM2">
         <v>79</v>
       </c>
-      <c t="s" s="2" r="AN2">
+      <c t="s" s="1" r="AN2">
         <v>80</v>
       </c>
-      <c t="s" s="2" r="AO2">
+      <c t="s" s="1" r="AO2">
         <v>81</v>
       </c>
     </row>
@@ -12736,6 +12856,131 @@
       </c>
       <c t="s" s="2" r="AO51">
         <v>2090</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="s" s="2" r="A52">
+        <v>2091</v>
+      </c>
+      <c t="s" s="2" r="B52">
+        <v>2092</v>
+      </c>
+      <c t="s" s="2" r="C52">
+        <v>2093</v>
+      </c>
+      <c t="s" s="2" r="D52">
+        <v>2094</v>
+      </c>
+      <c t="s" s="2" r="E52">
+        <v>2095</v>
+      </c>
+      <c t="s" s="2" r="F52">
+        <v>2096</v>
+      </c>
+      <c t="s" s="2" r="G52">
+        <v>2097</v>
+      </c>
+      <c t="s" s="2" r="H52">
+        <v>2098</v>
+      </c>
+      <c t="s" s="2" r="I52">
+        <v>2099</v>
+      </c>
+      <c t="s" s="2" r="J52">
+        <v>2100</v>
+      </c>
+      <c t="s" s="2" r="K52">
+        <v>2101</v>
+      </c>
+      <c t="s" s="2" r="L52">
+        <v>2102</v>
+      </c>
+      <c t="s" s="2" r="M52">
+        <v>2103</v>
+      </c>
+      <c t="s" s="2" r="N52">
+        <v>2104</v>
+      </c>
+      <c t="s" s="2" r="O52">
+        <v>2105</v>
+      </c>
+      <c t="s" s="2" r="P52">
+        <v>2106</v>
+      </c>
+      <c t="s" s="2" r="Q52">
+        <v>2107</v>
+      </c>
+      <c t="s" s="2" r="R52">
+        <v>2108</v>
+      </c>
+      <c t="s" s="2" r="S52">
+        <v>2109</v>
+      </c>
+      <c t="s" s="2" r="T52">
+        <v>2110</v>
+      </c>
+      <c t="s" s="2" r="U52">
+        <v>2111</v>
+      </c>
+      <c t="s" s="2" r="V52">
+        <v>2112</v>
+      </c>
+      <c t="s" s="2" r="W52">
+        <v>2113</v>
+      </c>
+      <c t="s" s="2" r="X52">
+        <v>2114</v>
+      </c>
+      <c t="s" s="2" r="Y52">
+        <v>2115</v>
+      </c>
+      <c t="s" s="2" r="Z52">
+        <v>2116</v>
+      </c>
+      <c t="s" s="2" r="AA52">
+        <v>2117</v>
+      </c>
+      <c t="s" s="2" r="AB52">
+        <v>2118</v>
+      </c>
+      <c t="s" s="2" r="AC52">
+        <v>2119</v>
+      </c>
+      <c t="s" s="2" r="AD52">
+        <v>2120</v>
+      </c>
+      <c t="s" s="2" r="AE52">
+        <v>2121</v>
+      </c>
+      <c t="s" s="2" r="AF52">
+        <v>2122</v>
+      </c>
+      <c t="s" s="2" r="AG52">
+        <v>2123</v>
+      </c>
+      <c t="s" s="2" r="AH52">
+        <v>2124</v>
+      </c>
+      <c t="s" s="2" r="AI52">
+        <v>2125</v>
+      </c>
+      <c t="s" s="2" r="AJ52">
+        <v>2126</v>
+      </c>
+      <c t="s" s="2" r="AK52">
+        <v>2127</v>
+      </c>
+      <c t="s" s="2" r="AL52">
+        <v>2128</v>
+      </c>
+      <c t="s" s="2" r="AM52">
+        <v>2129</v>
+      </c>
+      <c t="s" s="2" r="AN52">
+        <v>2130</v>
+      </c>
+      <c t="s" s="2" r="AO52">
+        <v>2131</v>
       </c>
     </row>
   </sheetData>
